--- a/beras/dataframe_beras.xlsx
+++ b/beras/dataframe_beras.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D2" t="n">
         <v>202394</v>
@@ -469,10 +469,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>2e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D3" t="n">
         <v>131027</v>
@@ -483,10 +483,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D4" t="n">
         <v>130709</v>
@@ -497,10 +497,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D5" t="n">
         <v>233374</v>
@@ -511,10 +511,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>2e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D6" t="n">
         <v>124836</v>
@@ -525,10 +525,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D7" t="n">
         <v>171680</v>
@@ -539,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D8" t="n">
         <v>126222</v>
@@ -553,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>2e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D9" t="n">
         <v>124262</v>
@@ -567,10 +567,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D10" t="n">
         <v>142282</v>
@@ -581,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5</v>
+        <v>0.305</v>
       </c>
       <c r="D11" t="n">
         <v>200918</v>
@@ -595,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D12" t="n">
         <v>136567</v>
@@ -609,10 +609,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>2e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D13" t="n">
         <v>85253</v>
@@ -623,10 +623,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D14" t="n">
         <v>137875</v>
@@ -637,10 +637,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D15" t="n">
         <v>111972</v>
@@ -651,10 +651,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>2e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D16" t="n">
         <v>85198</v>
@@ -665,10 +665,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D17" t="n">
         <v>152488</v>
@@ -679,10 +679,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D18" t="n">
         <v>145399</v>
@@ -693,10 +693,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D19" t="n">
         <v>119387</v>
@@ -707,10 +707,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D20" t="n">
         <v>147835</v>
@@ -721,10 +721,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D21" t="n">
         <v>160071</v>
@@ -735,10 +735,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D22" t="n">
         <v>131230</v>
@@ -749,10 +749,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>65</v>
+        <v>6.499999999999999e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D23" t="n">
         <v>184783</v>
@@ -763,10 +763,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D24" t="n">
         <v>134195</v>
@@ -777,10 +777,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D25" t="n">
         <v>132962</v>
@@ -791,10 +791,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D26" t="n">
         <v>134337</v>
@@ -805,10 +805,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D27" t="n">
         <v>119102</v>
@@ -819,10 +819,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>2e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D28" t="n">
         <v>88825</v>
@@ -833,10 +833,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D29" t="n">
         <v>105688</v>
@@ -847,10 +847,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>55</v>
+        <v>5.5e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D30" t="n">
         <v>158993</v>
@@ -861,10 +861,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="D31" t="n">
         <v>163340</v>
@@ -875,10 +875,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>5.999999999999999e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D32" t="n">
         <v>204751</v>
@@ -889,10 +889,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>5.5e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D33" t="n">
         <v>188694</v>
@@ -903,10 +903,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D34" t="n">
         <v>171050</v>
@@ -917,10 +917,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D35" t="n">
         <v>142718</v>
@@ -931,10 +931,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D36" t="n">
         <v>167295</v>
@@ -945,10 +945,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D37" t="n">
         <v>135032</v>
@@ -959,10 +959,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D38" t="n">
         <v>130892</v>
@@ -973,10 +973,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D39" t="n">
         <v>134823</v>
@@ -987,10 +987,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D40" t="n">
         <v>129660</v>
@@ -1001,10 +1001,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>2e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D41" t="n">
         <v>103902</v>
@@ -1015,10 +1015,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D42" t="n">
         <v>132876</v>
@@ -1029,10 +1029,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D43" t="n">
         <v>143631</v>
@@ -1043,10 +1043,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D44" t="n">
         <v>173450</v>
@@ -1057,10 +1057,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D45" t="n">
         <v>147016</v>
@@ -1071,10 +1071,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D46" t="n">
         <v>120449</v>
@@ -1085,10 +1085,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D47" t="n">
         <v>136638</v>
@@ -1099,10 +1099,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D48" t="n">
         <v>124818</v>
@@ -1113,10 +1113,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D49" t="n">
         <v>148485</v>
@@ -1127,10 +1127,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D50" t="n">
         <v>110071</v>
@@ -1141,10 +1141,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="D51" t="n">
         <v>106284</v>
@@ -1155,10 +1155,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D52" t="n">
         <v>165829</v>
@@ -1169,10 +1169,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D53" t="n">
         <v>148053</v>
@@ -1183,10 +1183,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D54" t="n">
         <v>176010</v>
@@ -1197,10 +1197,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D55" t="n">
         <v>133467</v>
@@ -1211,10 +1211,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D56" t="n">
         <v>124873</v>
@@ -1225,10 +1225,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
+        <v>2.5e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D57" t="n">
         <v>120822</v>
@@ -1239,10 +1239,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D58" t="n">
         <v>179722</v>
@@ -1253,10 +1253,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D59" t="n">
         <v>177231</v>
@@ -1267,10 +1267,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D60" t="n">
         <v>180762</v>
@@ -1281,10 +1281,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>2e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D61" t="n">
         <v>114944</v>
@@ -1295,10 +1295,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D62" t="n">
         <v>182658</v>
@@ -1309,10 +1309,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D63" t="n">
         <v>181814</v>
@@ -1323,10 +1323,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D64" t="n">
         <v>162201</v>
@@ -1337,10 +1337,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D65" t="n">
         <v>196045</v>
@@ -1351,10 +1351,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D66" t="n">
         <v>139886</v>
@@ -1365,10 +1365,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D67" t="n">
         <v>174227</v>
@@ -1379,10 +1379,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D68" t="n">
         <v>177547</v>
@@ -1393,10 +1393,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D69" t="n">
         <v>154469</v>
@@ -1407,10 +1407,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D70" t="n">
         <v>142532</v>
@@ -1421,10 +1421,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>31.5</v>
+        <v>0.315</v>
       </c>
       <c r="D71" t="n">
         <v>152171</v>
@@ -1435,10 +1435,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D72" t="n">
         <v>145731</v>
@@ -1449,10 +1449,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D73" t="n">
         <v>189966</v>
@@ -1463,10 +1463,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D74" t="n">
         <v>143554</v>
@@ -1477,10 +1477,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D75" t="n">
         <v>169985</v>
@@ -1491,10 +1491,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>55</v>
+        <v>5.5e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D76" t="n">
         <v>204501</v>
@@ -1505,10 +1505,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D77" t="n">
         <v>150972</v>
@@ -1519,10 +1519,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D78" t="n">
         <v>151400</v>
@@ -1533,10 +1533,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D79" t="n">
         <v>187015</v>
@@ -1547,10 +1547,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D80" t="n">
         <v>143684</v>
@@ -1561,10 +1561,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D81" t="n">
         <v>163313</v>
@@ -1575,10 +1575,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>60</v>
+        <v>5.999999999999999e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D82" t="n">
         <v>208218</v>
@@ -1589,10 +1589,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D83" t="n">
         <v>189925</v>
@@ -1603,10 +1603,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D84" t="n">
         <v>161610</v>
@@ -1617,10 +1617,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D85" t="n">
         <v>175698</v>
@@ -1631,10 +1631,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D86" t="n">
         <v>134511</v>
@@ -1645,10 +1645,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D87" t="n">
         <v>165644</v>
@@ -1659,10 +1659,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>55</v>
+        <v>5.5e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D88" t="n">
         <v>204882</v>
@@ -1673,10 +1673,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D89" t="n">
         <v>145843</v>
@@ -1687,10 +1687,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D90" t="n">
         <v>155385</v>
@@ -1701,10 +1701,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D91" t="n">
         <v>179027</v>
@@ -1715,10 +1715,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C92" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D92" t="n">
         <v>154596</v>
@@ -1729,10 +1729,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>50</v>
+        <v>5e-05</v>
       </c>
       <c r="C93" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D93" t="n">
         <v>192577</v>
@@ -1743,10 +1743,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C94" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D94" t="n">
         <v>159425</v>
@@ -1757,10 +1757,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C95" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D95" t="n">
         <v>175903</v>
@@ -1771,10 +1771,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D96" t="n">
         <v>150448</v>
@@ -1785,10 +1785,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D97" t="n">
         <v>165869</v>
@@ -1799,10 +1799,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>30</v>
+        <v>3e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D98" t="n">
         <v>135835</v>
@@ -1813,10 +1813,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>45</v>
+        <v>4.5e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D99" t="n">
         <v>174188</v>
@@ -1827,10 +1827,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>40</v>
+        <v>4e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D100" t="n">
         <v>167557</v>
@@ -1841,10 +1841,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>35</v>
+        <v>3.5e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>32.2</v>
+        <v>0.322</v>
       </c>
       <c r="D101" t="n">
         <v>155597</v>
